--- a/Scheduling_Planning/ToneGen_Gantt_Chart_v1.xlsx
+++ b/Scheduling_Planning/ToneGen_Gantt_Chart_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wall.external2@infineon.com\Documents\GitHub\ToneGen\Scheduling_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D25ACB0-900A-40EC-94BB-97D193BF2B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130BB90C-C94F-45E7-AA0E-204A4B4E4B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3495" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
   <si>
     <t>Block</t>
   </si>
@@ -268,9 +268,6 @@
     <t>?? Final Report ??</t>
   </si>
   <si>
-    <t>Revise Previous Work</t>
-  </si>
-  <si>
     <t>Read Paper(s) on Howland</t>
   </si>
   <si>
@@ -329,6 +326,21 @@
   </si>
   <si>
     <t>Final Exams</t>
+  </si>
+  <si>
+    <t>Review the Basic Principles</t>
+  </si>
+  <si>
+    <t>** ASSUME 3 weeks for PCB manufacture**</t>
+  </si>
+  <si>
+    <t>Free up one of the weeks before or after christmas</t>
+  </si>
+  <si>
+    <t>Anthony to propose PCB manufacturer</t>
+  </si>
+  <si>
+    <t>make test plan &amp; DAC driver programming longer tasks</t>
   </si>
 </sst>
 </file>
@@ -562,9 +574,6 @@
       <alignment textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -580,6 +589,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AS30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU16" sqref="AU16"/>
+      <selection activeCell="AS24" sqref="AS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,9 +1628,10 @@
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="38" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="51" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:45" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1731,15 +1744,15 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="25"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1747,25 +1760,25 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="23"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="14"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="18"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="23"/>
+      <c r="AE2" s="22"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
       <c r="AH2" s="17"/>
@@ -1774,15 +1787,15 @@
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
     </row>
-    <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1790,25 +1803,25 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="23"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="14"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="19"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="18"/>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="23"/>
+      <c r="AE3" s="22"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="17"/>
@@ -1817,15 +1830,15 @@
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
     </row>
-    <row r="4" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1833,25 +1846,25 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="23"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="14"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="19"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="18"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
-      <c r="AE4" s="23"/>
+      <c r="AE4" s="22"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="17"/>
@@ -1860,41 +1873,41 @@
       <c r="AK4" s="12"/>
       <c r="AL4" s="12"/>
     </row>
-    <row r="5" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="23"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="14"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="19"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="18"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="23"/>
+      <c r="AE5" s="22"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="17"/>
@@ -1903,41 +1916,41 @@
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
     </row>
-    <row r="6" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="23"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="14"/>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="19"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="18"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="23"/>
+      <c r="AE6" s="22"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="17"/>
@@ -1946,9 +1959,9 @@
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
     </row>
-    <row r="7" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>22</v>
@@ -1958,29 +1971,29 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="23"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="14"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="19"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="18"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="22"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="17"/>
@@ -1989,9 +2002,9 @@
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
     </row>
-    <row r="8" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>
@@ -2002,28 +2015,28 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="23"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="14"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="19"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="18"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="23"/>
+      <c r="AE8" s="22"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="17"/>
@@ -2032,9 +2045,9 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
     </row>
-    <row r="9" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>22</v>
@@ -2046,27 +2059,27 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="14"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="19"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="18"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
-      <c r="AE9" s="23"/>
+      <c r="AE9" s="22"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="17"/>
@@ -2075,9 +2088,9 @@
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
     </row>
-    <row r="10" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>22</v>
@@ -2089,27 +2102,27 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="14"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="19"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="23"/>
+      <c r="AE10" s="22"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="17"/>
@@ -2118,9 +2131,9 @@
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
     </row>
-    <row r="11" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>22</v>
@@ -2134,25 +2147,25 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="14"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="19"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="18"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="23"/>
+      <c r="AE11" s="22"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="17"/>
@@ -2160,13 +2173,16 @@
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
-    </row>
-    <row r="12" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="12"/>
@@ -2177,25 +2193,25 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="25"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="25"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="19"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
-      <c r="AE12" s="23"/>
+      <c r="AE12" s="22"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="17"/>
@@ -2204,9 +2220,9 @@
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
     </row>
-    <row r="13" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>22</v>
@@ -2220,25 +2236,25 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="23"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="14"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="19"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
-      <c r="AE13" s="23"/>
+      <c r="AE13" s="22"/>
       <c r="AF13" s="12"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="17"/>
@@ -2247,9 +2263,9 @@
       <c r="AK13" s="12"/>
       <c r="AL13" s="12"/>
     </row>
-    <row r="14" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>22</v>
@@ -2263,25 +2279,25 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="14"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="19"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="18"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="23"/>
+      <c r="AE14" s="22"/>
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="17"/>
@@ -2290,12 +2306,12 @@
       <c r="AK14" s="12"/>
       <c r="AL14" s="12"/>
     </row>
-    <row r="15" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="12"/>
@@ -2306,25 +2322,25 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="23"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="14"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="19"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="18"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
-      <c r="AE15" s="23"/>
+      <c r="AE15" s="22"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="17"/>
@@ -2332,13 +2348,16 @@
       <c r="AJ15" s="12"/>
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
-    </row>
-    <row r="16" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="12"/>
@@ -2349,25 +2368,25 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="23"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="14"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="19"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="18"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
-      <c r="AE16" s="23"/>
+      <c r="AE16" s="22"/>
       <c r="AF16" s="12"/>
       <c r="AG16" s="12"/>
       <c r="AH16" s="17"/>
@@ -2375,10 +2394,13 @@
       <c r="AJ16" s="12"/>
       <c r="AK16" s="12"/>
       <c r="AL16" s="12"/>
-    </row>
-    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>22</v>
@@ -2392,25 +2414,25 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="14"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="19"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="18"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
-      <c r="AE17" s="23"/>
+      <c r="AE17" s="22"/>
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
       <c r="AH17" s="17"/>
@@ -2419,12 +2441,12 @@
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="12"/>
@@ -2435,25 +2457,25 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="14"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="19"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="18"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
       <c r="AH18" s="17"/>
@@ -2462,7 +2484,7 @@
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
     </row>
-    <row r="19" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="6"/>
@@ -2474,25 +2496,25 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="23"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="14"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="18"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="19"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="18"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
-      <c r="AE19" s="23"/>
+      <c r="AE19" s="22"/>
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
       <c r="AH19" s="17"/>
@@ -2500,8 +2522,11 @@
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
-    </row>
-    <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="6"/>
@@ -2513,25 +2538,25 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="14"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="18"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="19"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="18"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
-      <c r="AE20" s="23"/>
+      <c r="AE20" s="22"/>
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="17"/>
@@ -2540,7 +2565,7 @@
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
     </row>
-    <row r="21" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="9"/>
       <c r="D21" s="6"/>
@@ -2552,25 +2577,25 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="14"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="19"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="18"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
-      <c r="AE21" s="23"/>
+      <c r="AE21" s="22"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
       <c r="AH21" s="17"/>
@@ -2579,7 +2604,7 @@
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="9"/>
       <c r="D22" s="6"/>
@@ -2591,25 +2616,25 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="22"/>
       <c r="N22" s="14"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="19"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="18"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="23"/>
+      <c r="AE22" s="22"/>
       <c r="AF22" s="12"/>
       <c r="AG22" s="12"/>
       <c r="AH22" s="17"/>
@@ -2618,7 +2643,7 @@
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="9"/>
       <c r="D23" s="6"/>
@@ -2630,25 +2655,25 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="14"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="19"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="18"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
-      <c r="AE23" s="23"/>
+      <c r="AE23" s="22"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="17"/>
@@ -2657,7 +2682,7 @@
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
@@ -2669,25 +2694,25 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="14"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="19"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="18"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
-      <c r="AE24" s="23"/>
+      <c r="AE24" s="22"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="17"/>
@@ -2696,7 +2721,7 @@
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
     </row>
-    <row r="25" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="9"/>
       <c r="D25" s="6"/>
@@ -2708,25 +2733,25 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="23"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="14"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="19"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="18"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
-      <c r="AE25" s="23"/>
+      <c r="AE25" s="22"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="17"/>
@@ -2735,7 +2760,7 @@
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="9"/>
       <c r="D26" s="6"/>
@@ -2747,25 +2772,25 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="23"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="14"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="19"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="18"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="23"/>
+      <c r="AE26" s="22"/>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="17"/>
@@ -2774,7 +2799,7 @@
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="9"/>
       <c r="D27" s="6"/>
@@ -2786,25 +2811,25 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="23"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="14"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="19"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="18"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
-      <c r="AE27" s="23"/>
+      <c r="AE27" s="22"/>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
       <c r="AH27" s="17"/>
@@ -2813,7 +2838,7 @@
       <c r="AK27" s="12"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="9"/>
       <c r="D28" s="6"/>
@@ -2825,25 +2850,25 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="23"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="14"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="19"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="18"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
-      <c r="AE28" s="23"/>
+      <c r="AE28" s="22"/>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
       <c r="AH28" s="17"/>
@@ -2852,7 +2877,7 @@
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="D29" s="7"/>
       <c r="E29" s="12"/>
@@ -2863,25 +2888,25 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="23"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="14"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="18"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="19"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="18"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
-      <c r="AE29" s="23"/>
+      <c r="AE29" s="22"/>
       <c r="AF29" s="12"/>
       <c r="AG29" s="12"/>
       <c r="AH29" s="17"/>
@@ -2890,7 +2915,7 @@
       <c r="AK29" s="12"/>
       <c r="AL29" s="12"/>
     </row>
-    <row r="30" spans="1:39" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2903,59 +2928,59 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="23" t="s">
         <v>70</v>
       </c>
       <c r="N30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="20" t="s">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="20" t="s">
+      <c r="S30" s="27"/>
+      <c r="T30" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="U30" s="22" t="s">
+      <c r="U30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="V30" s="22" t="s">
+      <c r="V30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="W30" s="24" t="s">
+      <c r="W30" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X30" s="22" t="s">
+      <c r="X30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="Y30" s="22" t="s">
+      <c r="Y30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="Z30" s="22" t="s">
+      <c r="Z30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AA30" s="20" t="s">
+      <c r="AA30" s="19" t="s">
         <v>78</v>
       </c>
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
-      <c r="AE30" s="24" t="s">
+      <c r="AE30" s="23" t="s">
         <v>79</v>
       </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
-      <c r="AH30" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI30" s="18"/>
+      <c r="AH30" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI30" s="27"/>
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="15"/>
